--- a/biology/Médecine/Auguste_Lutaud/Auguste_Lutaud.xlsx
+++ b/biology/Médecine/Auguste_Lutaud/Auguste_Lutaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Joseph Lutaud, né à Mâcon le 28 octobre 1847 et mort dans la même ville le 25 août 1925, est un médecin-gynécologue, écrivain, cryptarque et voyageur français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des voyages en Afrique du Nord, en Égypte, aux Antilles et au Pérou, il visite les États-Unis une première fois juste après la guerre de Sécession (1865) puis, après deux voyages à Panama (1886 et 1891)[1], en 1894 pour un congrès scientifique à Washington.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des voyages en Afrique du Nord, en Égypte, aux Antilles et au Pérou, il visite les États-Unis une première fois juste après la guerre de Sécession (1865) puis, après deux voyages à Panama (1886 et 1891), en 1894 pour un congrès scientifique à Washington.
 Il visite alors New York, Boston, Newport et Philadelphie avant de se rendre à Washington. Il part ensuite à Baltimore puis Chicago, voit les chutes du Niagara et rentre en France.
-Il acquiert l'île d'Or le 3 février 1909. Un acte notarié, détenu par ses descendants[2] atteste d'un prix de 300 francs-or[3]  — soit 119 173,21 euros en 2019[4]. Selon Bureau-Lagane — membre de la troisième et actuelle famille propriétaire — les successeurs de Lutaud rapportent qu'à la suite d'une partie de whist Léon Sergent « ayant perdu une somme assez importante, propose de le [Lutaud] rembourser en cédant l'île[3] ». Ceci semble une rumeur peu vraisemblable ; l'hypothèse d'une proposition d'achat à Sergent, dont le départ prochain et définitif dans le Jura est connu, parait plus probable[2]. Il entreprit au début du XXe siècle l'édification d'une tour dite sarrazine de 18 m de haut qui fut achevée en 1910. Satisfait du résultat, il s'autoproclama la même année Auguste Ier roi de l'île d'Or, d'autres fêtes, dont l'une fastueuse en 1913, sont données. Des vignettes et des médailles furent créés figurant l'île d'Or.
+Il acquiert l'île d'Or le 3 février 1909. Un acte notarié, détenu par ses descendants atteste d'un prix de 300 francs-or  — soit 119 173,21 euros en 2019. Selon Bureau-Lagane — membre de la troisième et actuelle famille propriétaire — les successeurs de Lutaud rapportent qu'à la suite d'une partie de whist Léon Sergent « ayant perdu une somme assez importante, propose de le [Lutaud] rembourser en cédant l'île ». Ceci semble une rumeur peu vraisemblable ; l'hypothèse d'une proposition d'achat à Sergent, dont le départ prochain et définitif dans le Jura est connu, parait plus probable. Il entreprit au début du XXe siècle l'édification d'une tour dite sarrazine de 18 m de haut qui fut achevée en 1910. Satisfait du résultat, il s'autoproclama la même année Auguste Ier roi de l'île d'Or, d'autres fêtes, dont l'une fastueuse en 1913, sont données. Des vignettes et des médailles furent créés figurant l'île d'Or.
 Directeur de publication de L'Argus médical (1896-1898), du Journal de médecine de Paris et de La Médecine anecdotique, historique, littéraire (1901-1904), Auguste Lutaud est aussi à l'origine de la publication du Parnasse hippocratique, recueil de poésies fantaisistes, tirées de différents auteurs plus ou moins drôlatiques, sous le pseudonyme de Docteur Minime en 1884.
 </t>
         </is>
@@ -545,11 +559,13 @@
           <t>Positions médico-sociales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors des débats parlementaires sur le rétablissement du divorce (1882-1884), Lutaud est partisan du droit de divorcer. Médecin « héréditariste », il souhaite étendre les « cas de divorce » aux maladies les plus dangereuses et les plus héréditaires[5].
-Il fait partie des opposants les plus virulents à Louis Pasteur (1822-1895), dans son ouvrage Études sur la rage et la méthode Pasteur (1886)[6],[7].
-Sur la question de la prostitution et des maisons de tolérance, il se range du côté des « abolitionnistes » (partisans de l'interdiction pure et simple) qui ne parviennent pas à l'emporter sur les « néo-règlementaristes » (surveillance et contrôle médical) emmenés par Alfred Fournier (1832-1914)[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors des débats parlementaires sur le rétablissement du divorce (1882-1884), Lutaud est partisan du droit de divorcer. Médecin « héréditariste », il souhaite étendre les « cas de divorce » aux maladies les plus dangereuses et les plus héréditaires.
+Il fait partie des opposants les plus virulents à Louis Pasteur (1822-1895), dans son ouvrage Études sur la rage et la méthode Pasteur (1886),.
+Sur la question de la prostitution et des maisons de tolérance, il se range du côté des « abolitionnistes » (partisans de l'interdiction pure et simple) qui ne parviennent pas à l'emporter sur les « néo-règlementaristes » (surveillance et contrôle médical) emmenés par Alfred Fournier (1832-1914).
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On lui doit de nombreux articles dans des revues de médecine ainsi que des traductions d'études de médecine anglaises et les ouvrages suivants :
 Du vaginisme, ses causes, sa nature, son traitement, 1874
@@ -588,7 +606,7 @@
 Traité pratique de l'art des accouchements, avec Xavier Delore, 1883
 Précis des maladies des femmes, 1883
 La Prostitution et la traite des blanches à Londres et à Paris, 1886
-Études sur la rage et la méthode Pasteur, Paris, 1886 ; 2e édit., sous le titre Nouvelles études..., Paris, 1891[6].
+Études sur la rage et la méthode Pasteur, Paris, 1886 ; 2e édit., sous le titre Nouvelles études..., Paris, 1891.
 Formulaire des médicaments nouveaux : 1 000 formules usuelles, à l'usage des médecins praticiens et portant principalement sur les médicaments et les médications nouvelles, 1889
 Leçons de gynécologie opératoire, avec François Vulliet, 1889
 Nouvelles études sur l'isolement des contagieux en France et en Angleterre, 1890
@@ -602,7 +620,7 @@
 Manuel complet de gynécologie médicale et chirurgicale, 1900
 Le Crime du Capitaine, roman, 1924
 Ainsi que d'autres publications moins sérieuses :
-Docteur Minime (pseudonyme d'Auguste Lutaud), Le Parnasse hippocratique, Paris, A. Maloine, 1896, 288 vues, in-8 (lire en ligne)[9]</t>
+Docteur Minime (pseudonyme d'Auguste Lutaud), Le Parnasse hippocratique, Paris, A. Maloine, 1896, 288 vues, in-8 (lire en ligne)</t>
         </is>
       </c>
     </row>
